--- a/biology/Zoologie/Cercophonius/Cercophonius.xlsx
+++ b/biology/Zoologie/Cercophonius/Cercophonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercophonius est un genre de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie et en Nouvelle-Calédonie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie et en Nouvelle-Calédonie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (17/04/2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (17/04/2020) :
 Cercophonius granulosus Kraepelin, 1908
 Cercophonius kershawi Glauert, 1930
 Cercophonius michaelseni Kraepelin, 1908
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1861 : Ueber eine neue Eintheilung der Skorpione und ueber die von ihm in Mossambique gesammelten Arten von Skorpionen, aus welchem hier ein Auszug mitgetheilt wird. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1861, no 1, p. 507–516 (texte intégral).</t>
         </is>
